--- a/record.xlsx
+++ b/record.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sovie\Documents\GitHub\Sleep-Paralysis-Demon\Sleep-Paralysis-Demon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sovie\Documents\GitHub\Sleep-Paralysis-Demon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B437557C-439B-4FFA-BC56-37F3FB43F152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7FB4DC-975E-4EDA-BDEE-66271163E9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2376" yWindow="1344" windowWidth="12492" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -365,7 +365,7 @@
   <dimension ref="A1:M63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -404,7 +404,7 @@
         <v>3</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>3</v>
@@ -415,7 +415,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -811,35 +811,140 @@
       <c r="A24">
         <v>20</v>
       </c>
+      <c r="B24">
+        <v>64</v>
+      </c>
+      <c r="C24">
+        <v>162</v>
+      </c>
+      <c r="D24">
+        <v>92</v>
+      </c>
+      <c r="E24">
+        <v>83</v>
+      </c>
+      <c r="F24">
+        <v>73</v>
+      </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>21</v>
       </c>
+      <c r="B25">
+        <v>64</v>
+      </c>
+      <c r="C25">
+        <v>161</v>
+      </c>
+      <c r="D25">
+        <v>93</v>
+      </c>
+      <c r="E25">
+        <v>85</v>
+      </c>
+      <c r="F25">
+        <v>76</v>
+      </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>22</v>
       </c>
+      <c r="B26">
+        <v>69</v>
+      </c>
+      <c r="C26">
+        <v>172</v>
+      </c>
+      <c r="D26">
+        <v>89</v>
+      </c>
+      <c r="E26">
+        <v>89</v>
+      </c>
+      <c r="F26">
+        <v>77</v>
+      </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>23</v>
       </c>
+      <c r="B27">
+        <v>72</v>
+      </c>
+      <c r="C27">
+        <v>183</v>
+      </c>
+      <c r="D27">
+        <v>94</v>
+      </c>
+      <c r="E27">
+        <v>87</v>
+      </c>
+      <c r="F27">
+        <v>78</v>
+      </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>24</v>
       </c>
+      <c r="B28">
+        <v>72</v>
+      </c>
+      <c r="C28">
+        <v>183</v>
+      </c>
+      <c r="D28">
+        <v>94</v>
+      </c>
+      <c r="E28">
+        <v>87</v>
+      </c>
+      <c r="F28">
+        <v>78</v>
+      </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>25</v>
       </c>
+      <c r="B29">
+        <v>75</v>
+      </c>
+      <c r="C29">
+        <v>193</v>
+      </c>
+      <c r="D29">
+        <v>100</v>
+      </c>
+      <c r="E29">
+        <v>88</v>
+      </c>
+      <c r="F29">
+        <v>78</v>
+      </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>26</v>
+      </c>
+      <c r="B30">
+        <v>82</v>
+      </c>
+      <c r="C30">
+        <v>204</v>
+      </c>
+      <c r="D30">
+        <v>99</v>
+      </c>
+      <c r="E30">
+        <v>95</v>
+      </c>
+      <c r="F30">
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sovie\Documents\GitHub\Sleep-Paralysis-Demon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB7FB4DC-975E-4EDA-BDEE-66271163E9EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A1B6EA-9A59-4112-81A5-42A7FAB634D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2376" yWindow="1344" windowWidth="12492" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,8 +364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -390,7 +390,7 @@
         <v>5</v>
       </c>
       <c r="M1">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sovie\Documents\GitHub\Sleep-Paralysis-Demon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A1B6EA-9A59-4112-81A5-42A7FAB634D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE68592-D70D-418F-8734-CD241685D7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2376" yWindow="1344" windowWidth="12492" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4572" yWindow="1080" windowWidth="12492" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -390,7 +390,7 @@
         <v>5</v>
       </c>
       <c r="M1">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">

--- a/record.xlsx
+++ b/record.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sovie\Documents\GitHub\Sleep-Paralysis-Demon\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sovie\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE68592-D70D-418F-8734-CD241685D7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7E11D9-F46C-4060-BD9B-AD9F9198E3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4572" yWindow="1080" windowWidth="12492" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8376" yWindow="1740" windowWidth="12492" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>date</t>
   </si>
@@ -38,6 +38,15 @@
   </si>
   <si>
     <t>hanrick</t>
+  </si>
+  <si>
+    <t>late</t>
+  </si>
+  <si>
+    <t>grace</t>
+  </si>
+  <si>
+    <t>streak</t>
   </si>
 </sst>
 </file>
@@ -364,8 +373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -390,10 +399,13 @@
         <v>5</v>
       </c>
       <c r="M1">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
       <c r="B2">
         <v>2</v>
       </c>
@@ -411,11 +423,14 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
       <c r="B3">
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -424,6 +439,26 @@
         <v>0</v>
       </c>
       <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>0</v>
       </c>
     </row>
@@ -950,6 +985,21 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>27</v>
+      </c>
+      <c r="B31">
+        <v>83</v>
+      </c>
+      <c r="C31">
+        <v>215</v>
+      </c>
+      <c r="D31">
+        <v>98</v>
+      </c>
+      <c r="E31">
+        <v>102</v>
+      </c>
+      <c r="F31">
+        <v>84</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">

--- a/record.xlsx
+++ b/record.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sovie\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sovie\Documents\GitHub\Sleep-Paralysis-Demon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE7E11D9-F46C-4060-BD9B-AD9F9198E3DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD76ADF9-6F9C-4D4D-94A6-FC52BB5EFED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8376" yWindow="1740" windowWidth="12492" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8724" yWindow="2088" windowWidth="12492" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -373,8 +373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>0</v>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sovie\Documents\GitHub\Sleep-Paralysis-Demon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD76ADF9-6F9C-4D4D-94A6-FC52BB5EFED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D56D73-9CF4-432A-A643-CCFA8BA2182E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8724" yWindow="2088" windowWidth="12492" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11796" yWindow="1440" windowWidth="12492" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -373,8 +373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -399,7 +399,7 @@
         <v>5</v>
       </c>
       <c r="M1">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -1005,6 +1005,21 @@
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>28</v>
+      </c>
+      <c r="B32">
+        <v>85</v>
+      </c>
+      <c r="C32">
+        <v>213</v>
+      </c>
+      <c r="D32">
+        <v>104</v>
+      </c>
+      <c r="E32">
+        <v>107</v>
+      </c>
+      <c r="F32">
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sovie\Documents\GitHub\Sleep-Paralysis-Demon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25D56D73-9CF4-432A-A643-CCFA8BA2182E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C9A315-FE10-4F74-9625-B72231D3B4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11796" yWindow="1440" windowWidth="12492" windowHeight="8928" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -373,8 +373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K43" sqref="K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -399,7 +399,7 @@
         <v>5</v>
       </c>
       <c r="M1">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -430,7 +430,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="1">
         <v>34</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6">
         <v>34</v>
@@ -504,7 +504,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7">
         <v>35</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>41</v>
@@ -544,7 +544,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>42</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B10">
         <v>47</v>
@@ -584,7 +584,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>47</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>52</v>
@@ -624,7 +624,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13">
         <v>53</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14">
         <v>53</v>
@@ -664,7 +664,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15">
         <v>54</v>
@@ -684,7 +684,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16">
         <v>54</v>
@@ -704,7 +704,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>54</v>
@@ -724,7 +724,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B18">
         <v>54</v>
@@ -744,7 +744,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19">
         <v>56</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20">
         <v>56</v>
@@ -784,7 +784,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>60</v>
@@ -804,7 +804,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B22">
         <v>62</v>
@@ -824,7 +824,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B23">
         <v>63</v>
@@ -844,7 +844,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24">
         <v>64</v>
@@ -864,7 +864,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B25">
         <v>64</v>
@@ -884,7 +884,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B26">
         <v>69</v>
@@ -904,7 +904,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27">
         <v>72</v>
@@ -924,7 +924,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28">
         <v>72</v>
@@ -944,7 +944,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29">
         <v>75</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B30">
         <v>82</v>
@@ -984,7 +984,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31">
         <v>83</v>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B32">
         <v>85</v>
@@ -1022,159 +1022,189 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
+        <v>28</v>
+      </c>
+      <c r="B33">
+        <v>90</v>
+      </c>
+      <c r="C33">
+        <v>223</v>
+      </c>
+      <c r="D33">
+        <v>105</v>
+      </c>
+      <c r="E33">
+        <v>107</v>
+      </c>
+      <c r="F33">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34">
         <v>29</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="B34">
+        <v>94</v>
+      </c>
+      <c r="C34">
+        <v>229</v>
+      </c>
+      <c r="D34">
+        <v>108</v>
+      </c>
+      <c r="E34">
+        <v>110</v>
+      </c>
+      <c r="F34">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37">
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42">
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45">
         <v>40</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46">
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47">
         <v>42</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48">
         <v>43</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>44</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/record.xlsx
+++ b/record.xlsx
@@ -437,7 +437,7 @@
         </is>
       </c>
       <c r="M1" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -469,10 +469,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1130,90 +1130,360 @@
       <c r="A36" t="n">
         <v>31</v>
       </c>
+      <c r="B36" t="n">
+        <v>100</v>
+      </c>
+      <c r="C36" t="n">
+        <v>234</v>
+      </c>
+      <c r="D36" t="n">
+        <v>110</v>
+      </c>
+      <c r="E36" t="n">
+        <v>114</v>
+      </c>
+      <c r="F36" t="n">
+        <v>105</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>32</v>
       </c>
+      <c r="B37" t="n">
+        <v>102</v>
+      </c>
+      <c r="C37" t="n">
+        <v>245</v>
+      </c>
+      <c r="D37" t="n">
+        <v>111</v>
+      </c>
+      <c r="E37" t="n">
+        <v>114</v>
+      </c>
+      <c r="F37" t="n">
+        <v>109</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>33</v>
       </c>
+      <c r="B38" t="n">
+        <v>107</v>
+      </c>
+      <c r="C38" t="n">
+        <v>251</v>
+      </c>
+      <c r="D38" t="n">
+        <v>122</v>
+      </c>
+      <c r="E38" t="n">
+        <v>114</v>
+      </c>
+      <c r="F38" t="n">
+        <v>112</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>34</v>
       </c>
+      <c r="B39" t="n">
+        <v>111</v>
+      </c>
+      <c r="C39" t="n">
+        <v>262</v>
+      </c>
+      <c r="D39" t="n">
+        <v>124</v>
+      </c>
+      <c r="E39" t="n">
+        <v>114</v>
+      </c>
+      <c r="F39" t="n">
+        <v>114</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>35</v>
       </c>
+      <c r="B40" t="n">
+        <v>115</v>
+      </c>
+      <c r="C40" t="n">
+        <v>270</v>
+      </c>
+      <c r="D40" t="n">
+        <v>125</v>
+      </c>
+      <c r="E40" t="n">
+        <v>120</v>
+      </c>
+      <c r="F40" t="n">
+        <v>116</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>36</v>
       </c>
+      <c r="B41" t="n">
+        <v>117</v>
+      </c>
+      <c r="C41" t="n">
+        <v>281</v>
+      </c>
+      <c r="D41" t="n">
+        <v>127</v>
+      </c>
+      <c r="E41" t="n">
+        <v>126</v>
+      </c>
+      <c r="F41" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>37</v>
       </c>
+      <c r="B42" t="n">
+        <v>118</v>
+      </c>
+      <c r="C42" t="n">
+        <v>289</v>
+      </c>
+      <c r="D42" t="n">
+        <v>132</v>
+      </c>
+      <c r="E42" t="n">
+        <v>128</v>
+      </c>
+      <c r="F42" t="n">
+        <v>119</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>38</v>
       </c>
+      <c r="B43" t="n">
+        <v>122</v>
+      </c>
+      <c r="C43" t="n">
+        <v>300</v>
+      </c>
+      <c r="D43" t="n">
+        <v>132</v>
+      </c>
+      <c r="E43" t="n">
+        <v>136</v>
+      </c>
+      <c r="F43" t="n">
+        <v>122</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>39</v>
       </c>
+      <c r="B44" t="n">
+        <v>124</v>
+      </c>
+      <c r="C44" t="n">
+        <v>304</v>
+      </c>
+      <c r="D44" t="n">
+        <v>139</v>
+      </c>
+      <c r="E44" t="n">
+        <v>136</v>
+      </c>
+      <c r="F44" t="n">
+        <v>127</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>40</v>
       </c>
+      <c r="B45" t="n">
+        <v>128</v>
+      </c>
+      <c r="C45" t="n">
+        <v>315</v>
+      </c>
+      <c r="D45" t="n">
+        <v>139</v>
+      </c>
+      <c r="E45" t="n">
+        <v>145</v>
+      </c>
+      <c r="F45" t="n">
+        <v>132</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>41</v>
       </c>
+      <c r="B46" t="n">
+        <v>128</v>
+      </c>
+      <c r="C46" t="n">
+        <v>326</v>
+      </c>
+      <c r="D46" t="n">
+        <v>142</v>
+      </c>
+      <c r="E46" t="n">
+        <v>150</v>
+      </c>
+      <c r="F46" t="n">
+        <v>135</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>42</v>
       </c>
+      <c r="B47" t="n">
+        <v>131</v>
+      </c>
+      <c r="C47" t="n">
+        <v>337</v>
+      </c>
+      <c r="D47" t="n">
+        <v>143</v>
+      </c>
+      <c r="E47" t="n">
+        <v>159</v>
+      </c>
+      <c r="F47" t="n">
+        <v>141</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>43</v>
       </c>
+      <c r="B48" t="n">
+        <v>132</v>
+      </c>
+      <c r="C48" t="n">
+        <v>344</v>
+      </c>
+      <c r="D48" t="n">
+        <v>148</v>
+      </c>
+      <c r="E48" t="n">
+        <v>165</v>
+      </c>
+      <c r="F48" t="n">
+        <v>149</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>44</v>
       </c>
+      <c r="B49" t="n">
+        <v>136</v>
+      </c>
+      <c r="C49" t="n">
+        <v>352</v>
+      </c>
+      <c r="D49" t="n">
+        <v>150</v>
+      </c>
+      <c r="E49" t="n">
+        <v>172</v>
+      </c>
+      <c r="F49" t="n">
+        <v>155</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>45</v>
       </c>
+      <c r="B50" t="n">
+        <v>147</v>
+      </c>
+      <c r="C50" t="n">
+        <v>355</v>
+      </c>
+      <c r="D50" t="n">
+        <v>161</v>
+      </c>
+      <c r="E50" t="n">
+        <v>179</v>
+      </c>
+      <c r="F50" t="n">
+        <v>161</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>46</v>
       </c>
+      <c r="B51" t="n">
+        <v>138</v>
+      </c>
+      <c r="C51" t="n">
+        <v>358</v>
+      </c>
+      <c r="D51" t="n">
+        <v>158</v>
+      </c>
+      <c r="E51" t="n">
+        <v>170</v>
+      </c>
+      <c r="F51" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>47</v>
       </c>
+      <c r="B52" t="n">
+        <v>142</v>
+      </c>
+      <c r="C52" t="n">
+        <v>366</v>
+      </c>
+      <c r="D52" t="n">
+        <v>156</v>
+      </c>
+      <c r="E52" t="n">
+        <v>176</v>
+      </c>
+      <c r="F52" t="n">
+        <v>160</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>48</v>
+      </c>
+      <c r="B53" t="n">
+        <v>151</v>
+      </c>
+      <c r="C53" t="n">
+        <v>377</v>
+      </c>
+      <c r="D53" t="n">
+        <v>159</v>
+      </c>
+      <c r="E53" t="n">
+        <v>183</v>
+      </c>
+      <c r="F53" t="n">
+        <v>160</v>
       </c>
     </row>
     <row r="54">

--- a/record.xlsx
+++ b/record.xlsx
@@ -437,7 +437,7 @@
         </is>
       </c>
       <c r="M1" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2">
@@ -475,7 +475,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -1490,25 +1490,100 @@
       <c r="A54" t="n">
         <v>49</v>
       </c>
+      <c r="B54" t="n">
+        <v>151</v>
+      </c>
+      <c r="C54" t="n">
+        <v>388</v>
+      </c>
+      <c r="D54" t="n">
+        <v>170</v>
+      </c>
+      <c r="E54" t="n">
+        <v>189</v>
+      </c>
+      <c r="F54" t="n">
+        <v>163</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>50</v>
       </c>
+      <c r="B55" t="n">
+        <v>157</v>
+      </c>
+      <c r="C55" t="n">
+        <v>394</v>
+      </c>
+      <c r="D55" t="n">
+        <v>158</v>
+      </c>
+      <c r="E55" t="n">
+        <v>199</v>
+      </c>
+      <c r="F55" t="n">
+        <v>166</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>51</v>
       </c>
+      <c r="B56" t="n">
+        <v>159</v>
+      </c>
+      <c r="C56" t="n">
+        <v>401</v>
+      </c>
+      <c r="D56" t="n">
+        <v>165</v>
+      </c>
+      <c r="E56" t="n">
+        <v>198</v>
+      </c>
+      <c r="F56" t="n">
+        <v>172</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>52</v>
       </c>
+      <c r="B57" t="n">
+        <v>159</v>
+      </c>
+      <c r="C57" t="n">
+        <v>412</v>
+      </c>
+      <c r="D57" t="n">
+        <v>176</v>
+      </c>
+      <c r="E57" t="n">
+        <v>198</v>
+      </c>
+      <c r="F57" t="n">
+        <v>177</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>53</v>
+      </c>
+      <c r="B58" t="n">
+        <v>161</v>
+      </c>
+      <c r="C58" t="n">
+        <v>423</v>
+      </c>
+      <c r="D58" t="n">
+        <v>187</v>
+      </c>
+      <c r="E58" t="n">
+        <v>195</v>
+      </c>
+      <c r="F58" t="n">
+        <v>178</v>
       </c>
     </row>
     <row r="59">

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sovie\Documents\GitHub\Sleep-Paralysis-Demon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DAA93A0-D566-4807-8A3F-62B38D864A80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E27B3EB-02FD-461F-A66D-51CAD2FAE541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Point" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="208">
   <si>
     <t>date</t>
   </si>
@@ -171,9 +171,6 @@
     <t>02:48:00</t>
   </si>
   <si>
-    <t>02:50:00</t>
-  </si>
-  <si>
     <t>02:32:00</t>
   </si>
   <si>
@@ -213,9 +210,6 @@
     <t>02:10:00</t>
   </si>
   <si>
-    <t>02:30:00</t>
-  </si>
-  <si>
     <t>00:46:00</t>
   </si>
   <si>
@@ -537,9 +531,6 @@
     <t>01:32:00</t>
   </si>
   <si>
-    <t>03:15:00</t>
-  </si>
-  <si>
     <t>00:51:00</t>
   </si>
   <si>
@@ -571,6 +562,90 @@
   </si>
   <si>
     <t>02:38:00</t>
+  </si>
+  <si>
+    <t>02:50:00 f</t>
+  </si>
+  <si>
+    <t>02:30:00 f</t>
+  </si>
+  <si>
+    <t>03:00:00 f</t>
+  </si>
+  <si>
+    <t>01:00:00 f</t>
+  </si>
+  <si>
+    <t>00:30:00 f</t>
+  </si>
+  <si>
+    <t>01:30:00 f</t>
+  </si>
+  <si>
+    <t>02:00:00 f</t>
+  </si>
+  <si>
+    <t>00:50:00 f</t>
+  </si>
+  <si>
+    <t>03:15:00 f</t>
+  </si>
+  <si>
+    <t>02:01:00</t>
+  </si>
+  <si>
+    <t>02:04:00</t>
+  </si>
+  <si>
+    <t>01:10:00</t>
+  </si>
+  <si>
+    <t>00:36:00</t>
+  </si>
+  <si>
+    <t>03:03:00</t>
+  </si>
+  <si>
+    <t>23:09:00</t>
+  </si>
+  <si>
+    <t>03:07:00</t>
+  </si>
+  <si>
+    <t>01:08:00</t>
+  </si>
+  <si>
+    <t>00:16:00</t>
+  </si>
+  <si>
+    <t>01:54:00</t>
+  </si>
+  <si>
+    <t>01:47:00</t>
+  </si>
+  <si>
+    <t>03:30:00 f</t>
+  </si>
+  <si>
+    <t>02:09:00</t>
+  </si>
+  <si>
+    <t>01:40:00 f</t>
+  </si>
+  <si>
+    <t>02:29:00</t>
+  </si>
+  <si>
+    <t>02:58:00</t>
+  </si>
+  <si>
+    <t>03:53:00</t>
+  </si>
+  <si>
+    <t>01:04:00</t>
+  </si>
+  <si>
+    <t>00:02:00</t>
   </si>
 </sst>
 </file>
@@ -618,13 +693,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -905,10 +981,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M60"/>
+  <dimension ref="A1:M59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -938,7 +1014,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>6</v>
@@ -958,7 +1034,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -978,7 +1054,7 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>9</v>
@@ -998,7 +1074,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1018,7 +1094,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -1038,7 +1114,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
@@ -1058,7 +1134,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
@@ -1078,7 +1154,7 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>7</v>
@@ -1098,7 +1174,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
@@ -1118,7 +1194,7 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -1138,7 +1214,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1158,7 +1234,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>10</v>
@@ -1178,7 +1254,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -1198,7 +1274,7 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
         <v>7</v>
@@ -1218,7 +1294,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -1238,7 +1314,7 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
@@ -1258,7 +1334,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
@@ -1278,7 +1354,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
         <v>6</v>
@@ -1298,7 +1374,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>6</v>
@@ -1318,7 +1394,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -1338,7 +1414,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -1358,7 +1434,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>9</v>
@@ -1378,7 +1454,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
@@ -1398,7 +1474,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
@@ -1418,7 +1494,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>10</v>
@@ -1438,7 +1514,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>7</v>
@@ -1458,7 +1534,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>10</v>
@@ -1478,7 +1554,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -1498,7 +1574,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>9</v>
@@ -1518,7 +1594,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>10</v>
@@ -1538,7 +1614,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
         <v>10</v>
@@ -1558,7 +1634,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
@@ -1578,7 +1654,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
         <v>6</v>
@@ -1598,7 +1674,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
         <v>8</v>
@@ -1618,7 +1694,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
         <v>6</v>
@@ -1638,7 +1714,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
         <v>9</v>
@@ -1658,7 +1734,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
         <v>10</v>
@@ -1678,7 +1754,7 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
         <v>9</v>
@@ -1698,7 +1774,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
         <v>7</v>
@@ -1718,7 +1794,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
         <v>9</v>
@@ -1738,7 +1814,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
         <v>9</v>
@@ -1758,7 +1834,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
         <v>10</v>
@@ -1778,7 +1854,7 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
         <v>7</v>
@@ -1798,7 +1874,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
         <v>7</v>
@@ -1818,7 +1894,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
         <v>7</v>
@@ -1838,7 +1914,7 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
         <v>7</v>
@@ -1858,7 +1934,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
         <v>10</v>
@@ -1878,7 +1954,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
         <v>9</v>
@@ -1898,7 +1974,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
         <v>10</v>
@@ -1918,7 +1994,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
         <v>7</v>
@@ -1938,7 +2014,7 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
         <v>10</v>
@@ -1958,7 +2034,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
         <v>8</v>
@@ -1978,7 +2054,7 @@
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
         <v>6</v>
@@ -1998,31 +2074,26 @@
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A60">
         <v>58</v>
       </c>
     </row>
@@ -2036,8 +2107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2062,7 +2133,7 @@
         <v>11</v>
       </c>
       <c r="M1">
-        <v>53</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -2172,18 +2243,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F68"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2202,148 +2274,156 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="6"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>29</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>30</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="6"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="D4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="6"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>39</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>40</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="6"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="6"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="6"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -2351,39 +2431,41 @@
         <v>51</v>
       </c>
       <c r="C9" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>52</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="6"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="6"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -2391,1059 +2473,1196 @@
         <v>58</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="F11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="6"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D12" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="6"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>74</v>
       </c>
       <c r="D15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="F20" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="E21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D21" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F22" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="3" t="s">
-        <v>30</v>
+      <c r="B23" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D23" s="2" t="s">
-        <v>100</v>
+      <c r="D23" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>102</v>
+      <c r="B24" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>106</v>
+      <c r="D25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="C26" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D28" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="F28" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="E29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D29" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>110</v>
+      <c r="E30" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>118</v>
+      </c>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="E31" s="2" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="3" t="s">
+      <c r="B32" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="C32" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="D32" s="2" t="s">
-        <v>53</v>
+        <v>120</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>88</v>
+        <v>52</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E33" s="2" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>114</v>
-      </c>
       <c r="E35" s="2" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" s="6"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F37" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" s="6"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>57</v>
-      </c>
       <c r="E38" s="2" t="s">
-        <v>137</v>
+        <v>56</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" s="6"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="3" t="s">
-        <v>30</v>
+      <c r="B39" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" s="6"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="E40" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D40" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="E41" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D41" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D42" s="2" t="s">
+      <c r="E42" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E43" s="3" t="s">
+      <c r="D43" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="E43" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="F43" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>153</v>
-      </c>
       <c r="E44" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>95</v>
+        <v>156</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>158</v>
       </c>
       <c r="D46" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>54</v>
+        <v>186</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>102</v>
+        <v>184</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>160</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="G47" s="6"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="D48" s="2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>131</v>
+        <v>149</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+      <c r="G49" s="6"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>167</v>
+        <v>110</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>85</v>
+        <v>153</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+        <v>166</v>
+      </c>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>63</v>
+      <c r="B51" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+        <v>168</v>
+      </c>
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>188</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" s="6"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>173</v>
+        <v>103</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D53" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E53" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="F53" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C54" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>110</v>
+      <c r="E54" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+      <c r="G54" s="6"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>95</v>
+        <v>34</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>176</v>
+        <v>119</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>34</v>
+        <v>173</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="G55" s="6"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="E56" s="2" t="s">
-        <v>44</v>
+        <v>130</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="G56" s="6"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C57" s="5" t="s">
-        <v>73</v>
+      <c r="B57" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+      <c r="G57" s="6"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>124</v>
+        <v>55</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+        <v>178</v>
+      </c>
+      <c r="G58" s="6"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>182</v>
+        <v>103</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>105</v>
+        <v>39</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>77</v>
+        <v>179</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="G59" s="6"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B60" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" s="6"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B61" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="G61" s="6"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B62" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G62" s="6"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="2"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B63" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G63" s="6"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B64" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="G64" s="6"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B65" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G65" s="6"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B66" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G66" s="6"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B67" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="G67" s="6"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -3452,6 +3671,13 @@
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
+      <c r="G68" s="6"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G69" s="6"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G70" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sovie\Documents\GitHub\Sleep-Paralysis-Demon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E27B3EB-02FD-461F-A66D-51CAD2FAE541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C819E3-BAE1-455A-AC9D-3CA2888B9195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2133,7 +2133,7 @@
         <v>11</v>
       </c>
       <c r="M1">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">

--- a/record.xlsx
+++ b/record.xlsx
@@ -459,27 +459,27 @@
       </c>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D2" s="1" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>3</t>
         </is>
       </c>
       <c r="E2" s="1" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>38</t>
         </is>
       </c>
       <c r="F2" s="1" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>29</t>
         </is>
       </c>
     </row>
@@ -489,27 +489,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>-20</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>18</t>
         </is>
       </c>
     </row>
@@ -519,27 +519,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -549,27 +549,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>20</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -579,27 +579,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>45</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -609,27 +609,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>39</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>-29</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -639,27 +639,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>7</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -669,27 +669,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>-28</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>10</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>28</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -699,27 +699,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -729,27 +729,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>-30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>47</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -759,27 +759,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>-29</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>20</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>-26</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -804,12 +804,12 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>42</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>4</t>
         </is>
       </c>
     </row>
@@ -819,27 +819,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>-29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>24</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>16</t>
         </is>
       </c>
     </row>
@@ -849,27 +849,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>17</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>47</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>27</t>
         </is>
       </c>
     </row>
@@ -879,27 +879,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>21</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>30</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>-30</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>39</t>
         </is>
       </c>
     </row>
@@ -909,27 +909,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -939,27 +939,27 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>19</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>-30</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>50</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-2</t>
         </is>
       </c>
     </row>
@@ -969,27 +969,27 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>-30</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>36</t>
         </is>
       </c>
     </row>
@@ -999,27 +999,27 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>4</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -1029,27 +1029,27 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>13</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>-29</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -1059,27 +1059,27 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>-30</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>41</t>
         </is>
       </c>
     </row>
@@ -1094,22 +1094,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>25</t>
         </is>
       </c>
     </row>
@@ -1119,27 +1119,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>8</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -1149,27 +1149,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>-30</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -1179,27 +1179,27 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>43</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>32</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-30</t>
         </is>
       </c>
     </row>
@@ -1209,27 +1209,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>-30</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>34</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>43</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-1</t>
         </is>
       </c>
     </row>
@@ -1244,22 +1244,22 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>42</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>33</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>-30</t>
         </is>
       </c>
     </row>
@@ -1269,27 +1269,27 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>34</t>
         </is>
       </c>
     </row>
@@ -1299,17 +1299,17 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>-20</t>
         </is>
       </c>
     </row>
@@ -1329,27 +1329,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>23</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>32</t>
         </is>
       </c>
     </row>
@@ -1359,27 +1359,27 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>50</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>43</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -1389,27 +1389,27 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>34</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
     </row>
@@ -1419,22 +1419,22 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>41</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>-30</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>31</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1449,27 +1449,27 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>33</t>
         </is>
       </c>
     </row>
@@ -1479,27 +1479,27 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>18</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>-30</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>41</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1519,17 +1519,17 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>36</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>27</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>46</t>
         </is>
       </c>
     </row>
@@ -1539,7 +1539,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1549,17 +1549,17 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>30</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>19</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1579,17 +1579,17 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>40</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>-2</t>
         </is>
       </c>
     </row>
@@ -1599,27 +1599,27 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>38</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>21</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
     </row>
@@ -1629,27 +1629,27 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>26</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>-30</t>
         </is>
       </c>
     </row>
@@ -1659,7 +1659,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>32</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1669,17 +1669,17 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>-36</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -1694,22 +1694,22 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>50</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>50</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>-25</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -1719,27 +1719,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>-30</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -1749,17 +1749,17 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>6</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1769,7 +1769,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>38</t>
         </is>
       </c>
     </row>
@@ -1779,27 +1779,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>-20</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>33</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1819,7 +1819,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>26</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -1829,7 +1829,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -1839,27 +1839,27 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>42</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>20</t>
         </is>
       </c>
     </row>
@@ -1869,27 +1869,27 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>44</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>33</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>24</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>5</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
     </row>
@@ -1899,27 +1899,27 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>-27</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
           <t>16</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>48</t>
         </is>
       </c>
     </row>
@@ -1929,27 +1929,27 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>-2</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>20</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>30</t>
         </is>
       </c>
     </row>
@@ -1959,27 +1959,27 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
           <t>24</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>8</t>
         </is>
       </c>
     </row>
@@ -1989,27 +1989,27 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>0</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>49</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>22</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -2019,27 +2019,27 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>25</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>22</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>-26</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>13</t>
         </is>
       </c>
     </row>
@@ -2047,35 +2047,368 @@
       <c r="A55" t="n">
         <v>54</v>
       </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>-30</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>55</v>
       </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>56</v>
       </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>-30</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>57</v>
       </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>-30</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>58</v>
       </c>
-    </row>
-    <row r="60"/>
-    <row r="61"/>
-    <row r="62"/>
-    <row r="63"/>
-    <row r="64"/>
-    <row r="65"/>
-    <row r="66"/>
-    <row r="67"/>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>-28</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>-2</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>-1</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>-30</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>-29</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>-26</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>-30</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -2161,27 +2494,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>864</t>
+          <t>1379</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>992</t>
+          <t>876</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>1432</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>720</t>
+          <t>965</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>832</t>
+          <t>966</t>
         </is>
       </c>
     </row>
@@ -2213,20 +2546,30 @@
           <t>streak</t>
         </is>
       </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
     </row>
     <row r="7">

--- a/record.xlsx
+++ b/record.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sovie\Documents\GitHub\Sleep-Paralysis-Demon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A10F3EF-9FFB-40F5-8742-5451BBEA1626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689C7721-F143-4183-9B83-2324C0D9C4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Point" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="289">
   <si>
     <t>date</t>
   </si>
@@ -841,9 +841,6 @@
   </si>
   <si>
     <t>01:01:00</t>
-  </si>
-  <si>
-    <t>------</t>
   </si>
   <si>
     <t>02:06:00</t>
@@ -939,12 +936,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
@@ -2565,7 +2561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -2696,7 +2692,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B8" t="s">
         <v>78</v>
@@ -2723,9 +2719,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2758,19 +2754,19 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>83</v>
       </c>
       <c r="G2" s="3"/>
@@ -2779,19 +2775,19 @@
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G3" s="3"/>
@@ -2800,19 +2796,19 @@
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="2" t="s">
         <v>91</v>
       </c>
       <c r="G4" s="3"/>
@@ -2821,19 +2817,19 @@
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="2" t="s">
         <v>94</v>
       </c>
       <c r="G5" s="3"/>
@@ -2842,19 +2838,19 @@
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="2" t="s">
         <v>98</v>
       </c>
       <c r="G6" s="3"/>
@@ -2863,19 +2859,19 @@
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="2" t="s">
         <v>103</v>
       </c>
       <c r="G7" s="3"/>
@@ -2884,19 +2880,19 @@
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="2" t="s">
         <v>107</v>
       </c>
       <c r="G8" s="3"/>
@@ -2905,19 +2901,19 @@
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="2" t="s">
         <v>79</v>
       </c>
       <c r="G9" s="3"/>
@@ -2926,19 +2922,19 @@
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="2" t="s">
         <v>83</v>
       </c>
       <c r="G10" s="3"/>
@@ -2947,19 +2943,19 @@
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="2" t="s">
         <v>119</v>
       </c>
       <c r="G11" s="3"/>
@@ -2968,19 +2964,19 @@
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="4" t="s">
+      <c r="F12" s="2" t="s">
         <v>123</v>
       </c>
       <c r="G12" s="3"/>
@@ -2989,19 +2985,19 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="2" t="s">
         <v>82</v>
       </c>
       <c r="G13" s="3"/>
@@ -3010,19 +3006,19 @@
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="2" t="s">
         <v>129</v>
       </c>
       <c r="G14" s="3"/>
@@ -3031,19 +3027,19 @@
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F15" s="4" t="s">
+      <c r="F15" s="2" t="s">
         <v>134</v>
       </c>
       <c r="G15" s="3"/>
@@ -3052,19 +3048,19 @@
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="2" t="s">
         <v>137</v>
       </c>
       <c r="G16" s="3"/>
@@ -3073,19 +3069,19 @@
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="F17" s="4" t="s">
+      <c r="F17" s="2" t="s">
         <v>140</v>
       </c>
       <c r="G17" s="3"/>
@@ -3094,19 +3090,19 @@
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="4" t="s">
+      <c r="F18" s="2" t="s">
         <v>144</v>
       </c>
       <c r="G18" s="3"/>
@@ -3115,19 +3111,19 @@
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="2" t="s">
         <v>148</v>
       </c>
       <c r="G19" s="3"/>
@@ -3136,19 +3132,19 @@
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="2" t="s">
         <v>152</v>
       </c>
       <c r="G20" s="3"/>
@@ -3157,19 +3153,19 @@
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="4" t="s">
+      <c r="F21" s="2" t="s">
         <v>153</v>
       </c>
       <c r="G21" s="3"/>
@@ -3178,19 +3174,19 @@
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="4" t="s">
+      <c r="F22" s="2" t="s">
         <v>156</v>
       </c>
       <c r="G22" s="3"/>
@@ -3199,19 +3195,19 @@
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="2" t="s">
         <v>86</v>
       </c>
       <c r="G23" s="3"/>
@@ -3220,19 +3216,19 @@
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F24" s="4" t="s">
+      <c r="F24" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G24" s="3"/>
@@ -3241,19 +3237,19 @@
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E25" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F25" s="2" t="s">
         <v>132</v>
       </c>
       <c r="G25" s="3"/>
@@ -3262,19 +3258,19 @@
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="2" t="s">
         <v>167</v>
       </c>
       <c r="G26" s="3"/>
@@ -3283,19 +3279,19 @@
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F27" s="4" t="s">
+      <c r="F27" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G27" s="3"/>
@@ -3304,19 +3300,19 @@
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="2" t="s">
         <v>131</v>
       </c>
       <c r="G28" s="3"/>
@@ -3325,19 +3321,19 @@
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="4" t="s">
+      <c r="F29" s="2" t="s">
         <v>176</v>
       </c>
       <c r="G29" s="3"/>
@@ -3346,19 +3342,19 @@
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F30" s="4" t="s">
+      <c r="F30" s="2" t="s">
         <v>179</v>
       </c>
       <c r="G30" s="3"/>
@@ -3367,19 +3363,19 @@
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="2" t="s">
         <v>180</v>
       </c>
       <c r="G31" s="3"/>
@@ -3388,19 +3384,19 @@
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F32" s="4" t="s">
+      <c r="F32" s="2" t="s">
         <v>182</v>
       </c>
       <c r="G32" s="3"/>
@@ -3409,19 +3405,19 @@
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="F33" s="4" t="s">
+      <c r="F33" s="2" t="s">
         <v>135</v>
       </c>
       <c r="G33" s="3"/>
@@ -3430,19 +3426,19 @@
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="F34" s="4" t="s">
+      <c r="F34" s="2" t="s">
         <v>144</v>
       </c>
       <c r="G34" s="3"/>
@@ -3451,19 +3447,19 @@
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="4" t="s">
+      <c r="C35" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D35" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F35" s="4" t="s">
+      <c r="F35" s="2" t="s">
         <v>189</v>
       </c>
       <c r="G35" s="3"/>
@@ -3472,19 +3468,19 @@
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C36" s="4" t="s">
+      <c r="C36" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D36" s="4" t="s">
+      <c r="D36" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F36" s="4" t="s">
+      <c r="F36" s="2" t="s">
         <v>90</v>
       </c>
       <c r="G36" s="3"/>
@@ -3493,19 +3489,19 @@
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D37" s="4" t="s">
+      <c r="D37" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="2" t="s">
         <v>195</v>
       </c>
       <c r="G37" s="3"/>
@@ -3514,19 +3510,19 @@
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E38" s="4" t="s">
+      <c r="E38" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F38" s="4" t="s">
+      <c r="F38" s="2" t="s">
         <v>103</v>
       </c>
       <c r="G38" s="3"/>
@@ -3535,19 +3531,19 @@
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="F39" s="4" t="s">
+      <c r="F39" s="2" t="s">
         <v>201</v>
       </c>
       <c r="G39" s="3"/>
@@ -3556,19 +3552,19 @@
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="s">
+      <c r="B40" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="C40" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D40" s="4" t="s">
+      <c r="D40" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E40" s="4" t="s">
+      <c r="E40" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F40" s="4" t="s">
+      <c r="F40" s="2" t="s">
         <v>204</v>
       </c>
       <c r="G40" s="3"/>
@@ -3577,19 +3573,19 @@
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="C41" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D41" s="5" t="s">
+      <c r="D41" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="E41" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F41" s="4" t="s">
+      <c r="F41" s="2" t="s">
         <v>207</v>
       </c>
       <c r="G41" s="3"/>
@@ -3598,19 +3594,19 @@
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C42" s="4" t="s">
+      <c r="C42" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E42" s="4" t="s">
+      <c r="E42" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F42" s="4" t="s">
+      <c r="F42" s="2" t="s">
         <v>210</v>
       </c>
       <c r="G42" s="3"/>
@@ -3619,19 +3615,19 @@
       <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E43" s="4" t="s">
+      <c r="E43" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="F43" s="4" t="s">
+      <c r="F43" s="2" t="s">
         <v>174</v>
       </c>
       <c r="G43" s="3"/>
@@ -3640,19 +3636,19 @@
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C44" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D44" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F44" s="2" t="s">
         <v>101</v>
       </c>
       <c r="G44" s="3"/>
@@ -3661,19 +3657,19 @@
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="C45" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D45" s="4" t="s">
+      <c r="D45" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E45" s="4" t="s">
+      <c r="E45" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="F45" s="4" t="s">
+      <c r="F45" s="2" t="s">
         <v>217</v>
       </c>
       <c r="G45" s="3"/>
@@ -3682,19 +3678,19 @@
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="C46" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D46" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E46" s="4" t="s">
+      <c r="E46" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F46" s="4" t="s">
+      <c r="F46" s="2" t="s">
         <v>221</v>
       </c>
       <c r="G46" s="3"/>
@@ -3703,19 +3699,19 @@
       <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="6" t="s">
+      <c r="B47" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C47" s="6" t="s">
+      <c r="C47" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="D47" s="6" t="s">
+      <c r="D47" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="E47" s="4" t="s">
+      <c r="E47" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F47" s="4" t="s">
+      <c r="F47" s="2" t="s">
         <v>163</v>
       </c>
       <c r="G47" s="3"/>
@@ -3724,19 +3720,19 @@
       <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="C48" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E48" s="4" t="s">
+      <c r="E48" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F48" s="4" t="s">
+      <c r="F48" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G48" s="3"/>
@@ -3745,19 +3741,19 @@
       <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="C49" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="D49" s="4" t="s">
+      <c r="D49" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E49" s="4" t="s">
+      <c r="E49" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="F49" s="4" t="s">
+      <c r="F49" s="2" t="s">
         <v>163</v>
       </c>
       <c r="G49" s="3"/>
@@ -3766,19 +3762,19 @@
       <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C50" s="4" t="s">
+      <c r="C50" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D50" s="4" t="s">
+      <c r="D50" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="E50" s="4" t="s">
+      <c r="E50" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="F50" s="4" t="s">
+      <c r="F50" s="2" t="s">
         <v>230</v>
       </c>
       <c r="G50" s="3"/>
@@ -3787,19 +3783,19 @@
       <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B51" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="C51" s="4" t="s">
+      <c r="C51" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D51" s="4" t="s">
+      <c r="D51" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="E51" s="4" t="s">
+      <c r="E51" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" s="2" t="s">
         <v>232</v>
       </c>
       <c r="G51" s="3"/>
@@ -3808,19 +3804,19 @@
       <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="B52" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="4" t="s">
+      <c r="C52" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D52" s="4" t="s">
+      <c r="D52" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="F52" s="4" t="s">
+      <c r="F52" s="2" t="s">
         <v>91</v>
       </c>
       <c r="G52" s="3"/>
@@ -3829,19 +3825,19 @@
       <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="B53" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C53" s="4" t="s">
+      <c r="C53" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D53" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="E53" s="4" t="s">
+      <c r="E53" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="F53" s="4" t="s">
+      <c r="F53" s="2" t="s">
         <v>111</v>
       </c>
       <c r="G53" s="3"/>
@@ -3850,19 +3846,19 @@
       <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D54" s="4" t="s">
+      <c r="D54" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E54" s="4" t="s">
+      <c r="E54" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F54" s="2" t="s">
         <v>238</v>
       </c>
       <c r="G54" s="3"/>
@@ -3871,19 +3867,19 @@
       <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C55" s="4" t="s">
+      <c r="C55" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E55" s="4" t="s">
+      <c r="E55" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F55" s="4" t="s">
+      <c r="F55" s="2" t="s">
         <v>172</v>
       </c>
       <c r="G55" s="3"/>
@@ -3892,19 +3888,19 @@
       <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="B56" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C56" s="4" t="s">
+      <c r="C56" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D56" s="4" t="s">
+      <c r="D56" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E56" s="4" t="s">
+      <c r="E56" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="F56" s="4" t="s">
+      <c r="F56" s="2" t="s">
         <v>162</v>
       </c>
       <c r="G56" s="3"/>
@@ -3913,19 +3909,19 @@
       <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="7" t="s">
+      <c r="B57" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C57" s="4" t="s">
+      <c r="C57" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D57" s="4" t="s">
+      <c r="D57" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E57" s="4" t="s">
+      <c r="E57" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F57" s="4" t="s">
+      <c r="F57" s="2" t="s">
         <v>241</v>
       </c>
       <c r="G57" s="3"/>
@@ -3934,19 +3930,19 @@
       <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="B58" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="C58" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D58" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="E58" s="4" t="s">
+      <c r="E58" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="F58" s="4" t="s">
+      <c r="F58" s="2" t="s">
         <v>244</v>
       </c>
       <c r="G58" s="3"/>
@@ -3955,19 +3951,19 @@
       <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="F59" s="4" t="s">
+      <c r="F59" s="2" t="s">
         <v>132</v>
       </c>
       <c r="G59" s="3"/>
@@ -3976,19 +3972,19 @@
       <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C60" s="4" t="s">
+      <c r="C60" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D60" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E60" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="F60" s="4" t="s">
+      <c r="F60" s="2" t="s">
         <v>91</v>
       </c>
       <c r="G60" s="3"/>
@@ -3997,19 +3993,19 @@
       <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C61" s="4" t="s">
+      <c r="C61" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="F61" s="4" t="s">
+      <c r="F61" s="2" t="s">
         <v>251</v>
       </c>
       <c r="G61" s="3"/>
@@ -4018,19 +4014,19 @@
       <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B62" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C62" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E62" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="F62" s="4" t="s">
+      <c r="F62" s="2" t="s">
         <v>145</v>
       </c>
       <c r="G62" s="3"/>
@@ -4039,19 +4035,19 @@
       <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D63" s="4" t="s">
+      <c r="D63" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E63" s="4" t="s">
+      <c r="E63" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="F63" s="4" t="s">
+      <c r="F63" s="2" t="s">
         <v>256</v>
       </c>
       <c r="G63" s="3"/>
@@ -4060,19 +4056,19 @@
       <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" s="4" t="s">
+      <c r="B64" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C64" s="4" t="s">
+      <c r="C64" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E64" s="4" t="s">
+      <c r="E64" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F64" s="4" t="s">
+      <c r="F64" s="2" t="s">
         <v>258</v>
       </c>
       <c r="G64" s="3"/>
@@ -4081,19 +4077,19 @@
       <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" s="4" t="s">
+      <c r="B65" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C65" s="4" t="s">
+      <c r="C65" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="D65" s="4" t="s">
+      <c r="D65" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E65" s="4" t="s">
+      <c r="E65" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F65" s="4" t="s">
+      <c r="F65" s="2" t="s">
         <v>162</v>
       </c>
       <c r="G65" s="3"/>
@@ -4102,19 +4098,19 @@
       <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="B66" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="C66" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="E66" s="4" t="s">
+      <c r="E66" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="F66" s="4" t="s">
+      <c r="F66" s="2" t="s">
         <v>261</v>
       </c>
       <c r="G66" s="3"/>
@@ -4123,19 +4119,19 @@
       <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="C67" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="E67" s="4" t="s">
+      <c r="E67" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="F67" s="4" t="s">
+      <c r="F67" s="2" t="s">
         <v>264</v>
       </c>
       <c r="G67" s="3"/>
@@ -4144,382 +4140,382 @@
       <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="C68" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="E68" s="4" t="s">
+      <c r="E68" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F68" s="4" t="s">
+      <c r="F68" s="2" t="s">
         <v>174</v>
       </c>
       <c r="G68" s="3"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="4">
+      <c r="A69" s="2">
         <v>68</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="C69" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="D69" s="4" t="s">
+      <c r="D69" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E69" s="4" t="s">
+      <c r="E69" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="F69" s="2" t="s">
         <v>170</v>
       </c>
       <c r="G69" s="3"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="4">
+      <c r="A70" s="2">
         <v>69</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C70" s="4" t="s">
+      <c r="C70" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E70" s="4" t="s">
+      <c r="E70" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="F70" s="4" t="s">
+      <c r="F70" s="2" t="s">
         <v>253</v>
       </c>
       <c r="G70" s="3"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="4">
+      <c r="A71" s="2">
         <v>70</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C71" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D71" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E71" s="4" t="s">
+      <c r="E71" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="F71" s="4" t="s">
+      <c r="F71" s="2" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="4">
+      <c r="A72" s="2">
         <v>71</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="4" t="s">
+      <c r="C72" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="E72" s="4" t="s">
+      <c r="E72" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="F72" s="4" t="s">
+      <c r="F72" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="4">
+      <c r="A73" s="2">
         <v>72</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C73" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="D73" s="4" t="s">
+      <c r="D73" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="E73" s="4" t="s">
+      <c r="E73" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F73" s="4" t="s">
+      <c r="F73" s="2" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="4">
+      <c r="A74" s="2">
         <v>73</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C74" s="2" t="s">
         <v>186</v>
       </c>
       <c r="D74" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>74</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>75</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="E74" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F74" s="4" t="s">
+      <c r="C76" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>76</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>77</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>78</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>79</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>80</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D81" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>81</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="4">
-        <v>74</v>
-      </c>
-      <c r="B75" s="4" t="s">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>82</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>83</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
         <v>84</v>
       </c>
-      <c r="C75" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="4">
-        <v>75</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="4">
-        <v>76</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="4">
-        <v>77</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="4">
-        <v>78</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="4">
-        <v>79</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="4">
-        <v>80</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="F81" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="4">
-        <v>81</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="F82" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="4">
-        <v>82</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="4">
-        <v>83</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="F84" s="4" t="s">
+      <c r="B85" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="4">
-        <v>84</v>
-      </c>
-      <c r="B85" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="C85" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>288</v>
-      </c>
-      <c r="E85" s="4" t="s">
+      <c r="E85" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F85" s="4" t="s">
+      <c r="F85" s="2" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="4">
+      <c r="A86" s="2">
         <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="4">
+      <c r="A87" s="2">
         <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="4">
+      <c r="A88" s="2">
         <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="4">
+      <c r="A89" s="2">
         <v>88</v>
       </c>
     </row>

--- a/record.xlsx
+++ b/record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sovie\Documents\GitHub\Sleep-Paralysis-Demon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{689C7721-F143-4183-9B83-2324C0D9C4F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{016CAAB8-A6D6-442F-8857-924F20ADF02F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Point" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1339" uniqueCount="312">
   <si>
     <t>date</t>
   </si>
@@ -889,13 +889,82 @@
   </si>
   <si>
     <t>today</t>
+  </si>
+  <si>
+    <t>------</t>
+  </si>
+  <si>
+    <t>17:55:00</t>
+  </si>
+  <si>
+    <t>02:34:00</t>
+  </si>
+  <si>
+    <t>02:33:00 f</t>
+  </si>
+  <si>
+    <t>02:30:00</t>
+  </si>
+  <si>
+    <t>03:25:00</t>
+  </si>
+  <si>
+    <t>02:14:00</t>
+  </si>
+  <si>
+    <t>03:13:00</t>
+  </si>
+  <si>
+    <t>02:44:00</t>
+  </si>
+  <si>
+    <t>23:50:00</t>
+  </si>
+  <si>
+    <t>00:27:00</t>
+  </si>
+  <si>
+    <t>04:28:00</t>
+  </si>
+  <si>
+    <t>01:35:00 f</t>
+  </si>
+  <si>
+    <t>04:10:00 f</t>
+  </si>
+  <si>
+    <t>04:51:00</t>
+  </si>
+  <si>
+    <t>01:41:01</t>
+  </si>
+  <si>
+    <t>01:44:01</t>
+  </si>
+  <si>
+    <t>01:39:01</t>
+  </si>
+  <si>
+    <t>02:52:01</t>
+  </si>
+  <si>
+    <t>02:39:01</t>
+  </si>
+  <si>
+    <t>02:28:02</t>
+  </si>
+  <si>
+    <t>04:41:01</t>
+  </si>
+  <si>
+    <t>05:00:00 f</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -908,6 +977,12 @@
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -936,11 +1011,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
@@ -2561,8 +2641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2587,7 +2667,7 @@
         <v>67</v>
       </c>
       <c r="M1">
-        <v>85</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -2717,11 +2797,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:G198"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D74" sqref="D74"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A178" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F179" sqref="F179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2751,1775 +2831,3977 @@
       <c r="G1" s="2"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G2" s="3"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="4" t="s">
         <v>88</v>
       </c>
       <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>91</v>
       </c>
       <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="4" t="s">
         <v>94</v>
       </c>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="4" t="s">
         <v>98</v>
       </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="4" t="s">
         <v>103</v>
       </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="4" t="s">
         <v>107</v>
       </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="4" t="s">
         <v>79</v>
       </c>
       <c r="G9" s="3"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="4" t="s">
         <v>83</v>
       </c>
       <c r="G10" s="3"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="4" t="s">
         <v>119</v>
       </c>
       <c r="G11" s="3"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="4" t="s">
         <v>123</v>
       </c>
       <c r="G12" s="3"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="4" t="s">
         <v>82</v>
       </c>
       <c r="G13" s="3"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="4" t="s">
         <v>129</v>
       </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="4" t="s">
         <v>134</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="4" t="s">
         <v>137</v>
       </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="4" t="s">
         <v>140</v>
       </c>
       <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="4" t="s">
         <v>144</v>
       </c>
       <c r="G18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="4" t="s">
         <v>148</v>
       </c>
       <c r="G19" s="3"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="4" t="s">
         <v>152</v>
       </c>
       <c r="G20" s="3"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="4" t="s">
         <v>153</v>
       </c>
       <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="4" t="s">
         <v>156</v>
       </c>
       <c r="G22" s="3"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="C23" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="4" t="s">
         <v>86</v>
       </c>
       <c r="G23" s="3"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="C24" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="4" t="s">
         <v>150</v>
       </c>
       <c r="G24" s="3"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="4" t="s">
         <v>132</v>
       </c>
       <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="4" t="s">
         <v>167</v>
       </c>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C27" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="4" t="s">
         <v>101</v>
       </c>
       <c r="G27" s="3"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C28" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="4" t="s">
         <v>131</v>
       </c>
       <c r="G28" s="3"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C29" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" s="4" t="s">
         <v>176</v>
       </c>
       <c r="G29" s="3"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" s="4" t="s">
         <v>179</v>
       </c>
       <c r="G30" s="3"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="C31" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="4" t="s">
         <v>180</v>
       </c>
       <c r="G31" s="3"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C32" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="4" t="s">
         <v>182</v>
       </c>
       <c r="G32" s="3"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C33" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="4" t="s">
         <v>135</v>
       </c>
       <c r="G33" s="3"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="C34" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="4" t="s">
         <v>144</v>
       </c>
       <c r="G34" s="3"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="F35" s="4" t="s">
         <v>189</v>
       </c>
       <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="F36" s="4" t="s">
         <v>90</v>
       </c>
       <c r="G36" s="3"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="F37" s="4" t="s">
         <v>195</v>
       </c>
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="4" t="s">
         <v>103</v>
       </c>
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="2">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="4" t="s">
         <v>201</v>
       </c>
       <c r="G39" s="3"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="2">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F40" s="4" t="s">
         <v>204</v>
       </c>
       <c r="G40" s="3"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="2">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="C41" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D41" s="4" t="s">
+      <c r="D41" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F41" s="4" t="s">
         <v>207</v>
       </c>
       <c r="G41" s="3"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="2">
+      <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="B42" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="C42" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="F42" s="4" t="s">
         <v>210</v>
       </c>
       <c r="G42" s="3"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="2">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="4" t="s">
+      <c r="D43" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F43" s="4" t="s">
         <v>174</v>
       </c>
       <c r="G43" s="3"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="2">
+      <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="C44" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="D44" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="E44" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="4" t="s">
         <v>101</v>
       </c>
       <c r="G44" s="3"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="2">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="E45" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="F45" s="4" t="s">
         <v>217</v>
       </c>
       <c r="G45" s="3"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="2">
+      <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="C46" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="E46" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="F46" s="4" t="s">
         <v>221</v>
       </c>
       <c r="G46" s="3"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="2">
+      <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="E47" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="F47" s="4" t="s">
         <v>163</v>
       </c>
       <c r="G47" s="3"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="2">
+      <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="C48" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="E48" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="F48" s="4" t="s">
         <v>150</v>
       </c>
       <c r="G48" s="3"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="2">
+      <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="C49" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="D49" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="E49" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" s="4" t="s">
         <v>163</v>
       </c>
       <c r="G49" s="3"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="2">
+      <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C50" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F50" s="4" t="s">
         <v>230</v>
       </c>
       <c r="G50" s="3"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="2">
+      <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="C51" s="2" t="s">
+      <c r="C51" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="D51" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F51" s="4" t="s">
         <v>232</v>
       </c>
       <c r="G51" s="3"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="2">
+      <c r="A52" s="4">
         <v>51</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C52" s="2" t="s">
+      <c r="C52" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="F52" s="4" t="s">
         <v>91</v>
       </c>
       <c r="G52" s="3"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
+      <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="D53" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" s="4" t="s">
         <v>111</v>
       </c>
       <c r="G53" s="3"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
+      <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="4" t="s">
         <v>238</v>
       </c>
       <c r="G54" s="3"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
+      <c r="A55" s="4">
         <v>54</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="C55" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F55" s="4" t="s">
         <v>172</v>
       </c>
       <c r="G55" s="3"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
+      <c r="A56" s="4">
         <v>55</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C56" s="2" t="s">
+      <c r="C56" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D56" s="2" t="s">
+      <c r="D56" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F56" s="4" t="s">
         <v>162</v>
       </c>
       <c r="G56" s="3"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
+      <c r="A57" s="4">
         <v>56</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B57" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="C57" s="2" t="s">
+      <c r="C57" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="D57" s="2" t="s">
+      <c r="D57" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" s="4" t="s">
         <v>241</v>
       </c>
       <c r="G57" s="3"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
+      <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C58" s="2" t="s">
+      <c r="C58" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" s="4" t="s">
         <v>244</v>
       </c>
       <c r="G58" s="3"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
+      <c r="A59" s="4">
         <v>58</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="C59" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D59" s="2" t="s">
+      <c r="D59" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" s="4" t="s">
         <v>132</v>
       </c>
       <c r="G59" s="3"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
+      <c r="A60" s="4">
         <v>59</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C60" s="2" t="s">
+      <c r="C60" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="D60" s="2" t="s">
+      <c r="D60" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" s="4" t="s">
         <v>91</v>
       </c>
       <c r="G60" s="3"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
+      <c r="A61" s="4">
         <v>60</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C61" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" s="4" t="s">
         <v>251</v>
       </c>
       <c r="G61" s="3"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
+      <c r="A62" s="4">
         <v>61</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C62" s="2" t="s">
+      <c r="C62" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D62" s="2" t="s">
+      <c r="D62" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="4" t="s">
         <v>145</v>
       </c>
       <c r="G62" s="3"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
+      <c r="A63" s="4">
         <v>62</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F63" s="4" t="s">
         <v>256</v>
       </c>
       <c r="G63" s="3"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
+      <c r="A64" s="4">
         <v>63</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="C64" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F64" s="4" t="s">
         <v>258</v>
       </c>
       <c r="G64" s="3"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
+      <c r="A65" s="4">
         <v>64</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="D65" s="2" t="s">
+      <c r="D65" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F65" s="4" t="s">
         <v>162</v>
       </c>
       <c r="G65" s="3"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
+      <c r="A66" s="4">
         <v>65</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C66" s="2" t="s">
+      <c r="C66" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="D66" s="2" t="s">
+      <c r="D66" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E66" s="2" t="s">
+      <c r="E66" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F66" s="4" t="s">
         <v>261</v>
       </c>
       <c r="G66" s="3"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
+      <c r="A67" s="4">
         <v>66</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="C67" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="E67" s="2" t="s">
+      <c r="E67" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F67" s="4" t="s">
         <v>264</v>
       </c>
       <c r="G67" s="3"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
+      <c r="A68" s="4">
         <v>67</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C68" s="2" t="s">
+      <c r="C68" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="E68" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F68" s="4" t="s">
         <v>174</v>
       </c>
       <c r="G68" s="3"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
+      <c r="A69" s="4">
         <v>68</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="C69" s="2" t="s">
+      <c r="C69" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="D69" s="2" t="s">
+      <c r="D69" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E69" s="2" t="s">
+      <c r="E69" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F69" s="4" t="s">
         <v>170</v>
       </c>
       <c r="G69" s="3"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
+      <c r="A70" s="4">
         <v>69</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C70" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D70" s="2" t="s">
+      <c r="D70" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="E70" s="2" t="s">
+      <c r="E70" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F70" s="4" t="s">
         <v>253</v>
       </c>
       <c r="G70" s="3"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
+      <c r="A71" s="4">
         <v>70</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C71" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="E71" s="2" t="s">
+      <c r="E71" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F71" s="4" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
+      <c r="A72" s="4">
         <v>71</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="C72" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="D72" s="2" t="s">
+      <c r="D72" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="E72" s="2" t="s">
+      <c r="E72" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
+      <c r="A73" s="4">
         <v>72</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="C73" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="D73" s="2" t="s">
+      <c r="D73" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="E73" s="2" t="s">
+      <c r="E73" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="F73" s="4" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
+      <c r="A74" s="4">
         <v>73</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C74" s="2" t="s">
+      <c r="C74" s="4" t="s">
         <v>186</v>
       </c>
       <c r="D74" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="4">
+        <v>74</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="4">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
+        <v>76</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="4">
+        <v>77</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="4">
+        <v>78</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="4">
+        <v>79</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A81" s="4">
+        <v>80</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A82" s="4">
+        <v>81</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A83" s="4">
+        <v>82</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A84" s="4">
+        <v>83</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D84" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A85" s="4">
+        <v>84</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C85" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A86" s="4">
         <v>85</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="B86" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A87" s="4">
+        <v>86</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C87" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D87" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A88" s="4">
+        <v>87</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A89" s="4">
+        <v>88</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A90" s="4">
+        <v>89</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D90" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
+        <v>90</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A92" s="4">
         <v>91</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="B92" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A93" s="4">
+        <v>92</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A94" s="4">
+        <v>93</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C94" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A95" s="4">
+        <v>94</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A96" s="4">
+        <v>95</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A97" s="4">
+        <v>96</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A98" s="8">
+        <v>1</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C98" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="D98" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E98" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F98" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A99" s="8">
+        <v>2</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C99" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D99" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E99" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="F99" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A100" s="8">
+        <v>3</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C100" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D100" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E100" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A101" s="8">
+        <v>4</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C101" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D101" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E101" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="F101" s="8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A102" s="8">
+        <v>5</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C102" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D102" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E102" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A103" s="8">
+        <v>6</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C103" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D103" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E103" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A104" s="8">
+        <v>7</v>
+      </c>
+      <c r="B104" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D104" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E104" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F104" s="8" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A105" s="8">
+        <v>8</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C105" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D105" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E105" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="8">
+        <v>9</v>
+      </c>
+      <c r="B106" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D106" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E106" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F106" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A107" s="8">
+        <v>10</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D107" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="F107" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A108" s="8">
+        <v>11</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="D108" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="E108" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A109" s="8">
+        <v>12</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D109" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E109" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A110" s="8">
+        <v>13</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D110" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A111" s="8">
+        <v>14</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C111" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D111" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E111" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A112" s="8">
+        <v>15</v>
+      </c>
+      <c r="B112" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D112" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E112" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A113" s="8">
+        <v>16</v>
+      </c>
+      <c r="B113" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E113" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="F113" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A114" s="8">
+        <v>17</v>
+      </c>
+      <c r="B114" s="9" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
+      <c r="C114" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D114" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="E114" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F114" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A115" s="8">
+        <v>18</v>
+      </c>
+      <c r="B115" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D115" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E115" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A116" s="8">
+        <v>19</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D116" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E116" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A117" s="8">
+        <v>20</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A118" s="8">
+        <v>21</v>
+      </c>
+      <c r="B118" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D118" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A119" s="8">
+        <v>22</v>
+      </c>
+      <c r="B119" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D119" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A120" s="8">
+        <v>23</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D120" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E120" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F120" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A121" s="8">
+        <v>24</v>
+      </c>
+      <c r="B121" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D121" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A122" s="8">
+        <v>25</v>
+      </c>
+      <c r="B122" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="D122" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E122" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A123" s="8">
+        <v>26</v>
+      </c>
+      <c r="B123" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D123" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A124" s="8">
+        <v>27</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A125" s="8">
+        <v>28</v>
+      </c>
+      <c r="B125" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C125" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D125" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A126" s="8">
+        <v>29</v>
+      </c>
+      <c r="B126" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="8">
+        <v>30</v>
+      </c>
+      <c r="B127" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D127" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="8">
+        <v>31</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A129" s="8">
+        <v>32</v>
+      </c>
+      <c r="B129" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D129" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A130" s="8">
+        <v>33</v>
+      </c>
+      <c r="B130" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A131" s="8">
+        <v>34</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A132" s="8">
+        <v>35</v>
+      </c>
+      <c r="B132" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A133" s="8">
+        <v>36</v>
+      </c>
+      <c r="B133" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A134" s="8">
+        <v>37</v>
+      </c>
+      <c r="B134" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C134" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D134" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A135" s="8">
+        <v>38</v>
+      </c>
+      <c r="B135" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="D135" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A136" s="8">
+        <v>39</v>
+      </c>
+      <c r="B136" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D136" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E136" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F136" s="8" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A137" s="8">
+        <v>40</v>
+      </c>
+      <c r="B137" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D137" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E137" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F137" s="8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A138" s="8">
+        <v>41</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E138" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A139" s="8">
+        <v>42</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="C139" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E139" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A140" s="8">
+        <v>43</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="D140" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E140" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A141" s="8">
+        <v>44</v>
+      </c>
+      <c r="B141" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A142" s="8">
+        <v>45</v>
+      </c>
+      <c r="B142" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A143" s="8">
+        <v>46</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D143" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A144" s="8">
+        <v>47</v>
+      </c>
+      <c r="B144" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A145" s="8">
+        <v>48</v>
+      </c>
+      <c r="B145" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E145" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A146" s="8">
+        <v>49</v>
+      </c>
+      <c r="B146" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E146" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A147" s="8">
+        <v>50</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="C147" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E147" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A148" s="8">
+        <v>51</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C148" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E148" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A149" s="8">
+        <v>52</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C149" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E149" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F149" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A150" s="8">
+        <v>53</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E150" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="F150" s="8" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A151" s="8">
+        <v>54</v>
+      </c>
+      <c r="B151" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E151" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A152" s="8">
+        <v>55</v>
+      </c>
+      <c r="B152" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C152" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E152" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A153" s="8">
+        <v>56</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C153" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="E153" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F153" s="8" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A154" s="8">
+        <v>57</v>
+      </c>
+      <c r="B154" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C154" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D154" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E154" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="F154" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A155" s="8">
+        <v>58</v>
+      </c>
+      <c r="B155" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D155" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E155" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A156" s="8">
+        <v>59</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D156" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="E156" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A157" s="8">
+        <v>60</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="C157" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D157" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E157" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="F157" s="8" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A158" s="8">
+        <v>61</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C158" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D158" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E158" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="F158" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A159" s="8">
+        <v>62</v>
+      </c>
+      <c r="B159" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="C159" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="F159" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A160" s="8">
+        <v>63</v>
+      </c>
+      <c r="B160" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C160" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F160" s="8" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A161" s="8">
+        <v>64</v>
+      </c>
+      <c r="B161" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="C161" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A162" s="8">
+        <v>65</v>
+      </c>
+      <c r="B162" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C162" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="F162" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A163" s="8">
+        <v>66</v>
+      </c>
+      <c r="B163" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C163" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="F163" s="8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A164" s="8">
+        <v>67</v>
+      </c>
+      <c r="B164" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="C164" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F164" s="8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A165" s="8">
+        <v>68</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="C165" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="F165" s="8" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A166" s="8">
+        <v>69</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C166" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F166" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A167" s="8">
+        <v>70</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="C167" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F167" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A168" s="8">
+        <v>71</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C168" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="F168" s="8" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A169" s="8">
+        <v>72</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C169" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="E169" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="F169" s="8" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A170" s="8">
+        <v>73</v>
+      </c>
+      <c r="B170" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="C170" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="F170" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A171" s="8">
         <v>74</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B171" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C75" s="2" t="s">
+      <c r="C171" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="D75" s="2" t="s">
+      <c r="D171" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="E75" s="2" t="s">
+      <c r="E171" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F171" s="8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A172" s="8">
         <v>75</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B172" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="C76" s="2" t="s">
+      <c r="C172" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D172" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="E172" s="8" t="s">
         <v>276</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F172" s="8" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A173" s="8">
         <v>76</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B173" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="C173" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D173" s="8" t="s">
         <v>247</v>
       </c>
-      <c r="E77" s="2" t="s">
+      <c r="E173" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="F173" s="8" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A174" s="8">
         <v>77</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B174" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C78" s="2" t="s">
+      <c r="C174" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="D78" s="2" t="s">
+      <c r="D174" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E78" s="2" t="s">
+      <c r="E174" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="F174" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A175" s="8">
         <v>78</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B175" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="C175" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="D79" s="2" t="s">
+      <c r="D175" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="E79" s="2" t="s">
+      <c r="E175" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="F175" s="8" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A176" s="8">
         <v>79</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B176" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C80" s="2" t="s">
+      <c r="C176" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D176" s="8" t="s">
         <v>280</v>
       </c>
-      <c r="E80" s="2" t="s">
+      <c r="E176" s="8" t="s">
         <v>268</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="F176" s="8" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A177" s="8">
         <v>80</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B177" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C177" s="8" t="s">
         <v>211</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D177" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="E81" s="2" t="s">
+      <c r="E177" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="F177" s="8" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A178" s="8">
         <v>81</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B178" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="C178" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="D82" s="2" t="s">
+      <c r="D178" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="E82" s="2" t="s">
+      <c r="E178" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="F178" s="8" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A179" s="8">
         <v>82</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B179" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="C83" s="2" t="s">
+      <c r="C179" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="D83" s="2" t="s">
+      <c r="D179" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="E83" s="2" t="s">
+      <c r="E179" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="F179" s="8" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A180" s="8">
         <v>83</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B180" s="8" t="s">
         <v>258</v>
       </c>
-      <c r="C84" s="2" t="s">
+      <c r="C180" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D180" s="8" t="s">
         <v>285</v>
       </c>
-      <c r="E84" s="2" t="s">
+      <c r="E180" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="F180" s="8" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A181" s="8">
         <v>84</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B181" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C85" s="2" t="s">
+      <c r="C181" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D85" s="2" t="s">
+      <c r="D181" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="E85" s="2" t="s">
+      <c r="E181" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="F181" s="8" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A182" s="8">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
+      <c r="B182" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C182" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="E182" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="F182" s="8" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A183" s="8">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
+      <c r="B183" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="C183" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="E183" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F183" s="8" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A184" s="8">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
+      <c r="B184" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C184" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="E184" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="F184" s="8" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A185" s="8">
         <v>88</v>
       </c>
+      <c r="B185" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="C185" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="E185" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="F185" s="8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A186" s="8">
+        <v>89</v>
+      </c>
+      <c r="B186" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="C186" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="D186" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="E186" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="F186" s="8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A187" s="8">
+        <v>90</v>
+      </c>
+      <c r="B187" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C187" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="E187" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F187" s="8" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A188" s="8">
+        <v>91</v>
+      </c>
+      <c r="B188" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C188" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D188" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="E188" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F188" s="8" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A189" s="8">
+        <v>92</v>
+      </c>
+      <c r="B189" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="C189" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="D189" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E189" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="F189" s="8" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A190" s="8">
+        <v>93</v>
+      </c>
+      <c r="B190" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="C190" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="D190" s="8" t="s">
+        <v>302</v>
+      </c>
+      <c r="E190" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="F190" s="8" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A191" s="8">
+        <v>94</v>
+      </c>
+      <c r="B191" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C191" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D191" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="E191" s="8" t="s">
+        <v>257</v>
+      </c>
+      <c r="F191" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A192" s="8">
+        <v>95</v>
+      </c>
+      <c r="B192" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="C192" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D192" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="E192" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="F192" s="8" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A193" s="8">
+        <v>96</v>
+      </c>
+      <c r="B193" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="C193" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="D193" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="E193" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F193" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A194" s="8">
+        <v>97</v>
+      </c>
+      <c r="B194" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="C194" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="E194" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="F194" s="8" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A195" s="8">
+        <v>98</v>
+      </c>
+      <c r="B195" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C195" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="E195" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="F195" s="8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B196" s="8"/>
+      <c r="C196" s="8"/>
+      <c r="D196" s="8"/>
+      <c r="E196" s="8"/>
+      <c r="F196" s="8"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B197" s="8"/>
+      <c r="C197" s="8"/>
+      <c r="D197" s="8"/>
+      <c r="E197" s="8"/>
+      <c r="F197" s="8"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B198" s="8"/>
+      <c r="C198" s="8"/>
+      <c r="D198" s="8"/>
+      <c r="E198" s="8"/>
+      <c r="F198" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>